--- a/BackTest/2020-01-22 BackTest XLM.xlsx
+++ b/BackTest/2020-01-22 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1365086.98883293</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1362086.98883293</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1385448.75743293</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1350948.75743293</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1350948.75743293</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1405164.79343293</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1407726.52993293</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1538484.02103293</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1671567.04653293</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1671567.04653293</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1706849.68803293</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1699339.79583293</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1699354.76423293</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1694389.95733293</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1689647.77353293</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1689647.77353293</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1689647.77353293</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1699196.25953293</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1699196.25953293</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1699196.25953293</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1698061.25953293</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1818905.40773293</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1815371.46873293</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1815233.00293399</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1738809.66523293</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1743893.29953293</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1743879.62873293</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1744560.62873293</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2045795.73831903</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2936174.185119031</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-2905253.204219031</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-2905959.991219031</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2905959.991219031</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2905959.991219031</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2930959.991219031</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2940959.991219031</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2755832.825796791</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2739582.825796791</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2746676.900696791</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2750733.925196791</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2867511.718796791</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2880796.123396791</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2886792.342996791</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3596843.070585611</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-3614923.070585611</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3725481.375985611</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -7579,14 +7579,10 @@
         <v>-4818564.327614162</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="J218" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
@@ -7616,19 +7612,11 @@
         <v>-4830229.048414162</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>70.98</v>
-      </c>
-      <c r="J219" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7657,19 +7645,11 @@
         <v>-4816791.917414162</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>70.66</v>
-      </c>
-      <c r="J220" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7698,19 +7678,11 @@
         <v>-4816175.917414162</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>70.81999999999999</v>
-      </c>
-      <c r="J221" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7739,19 +7711,11 @@
         <v>-4838003.261114162</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>70.91</v>
-      </c>
-      <c r="J222" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7780,19 +7744,11 @@
         <v>-4799204.112814162</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>70.69</v>
-      </c>
-      <c r="J223" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7821,19 +7777,11 @@
         <v>-4799819.297314162</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>71.13</v>
-      </c>
-      <c r="J224" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7862,19 +7810,11 @@
         <v>-4803686.221514163</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>71.06999999999999</v>
-      </c>
-      <c r="J225" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7903,19 +7843,11 @@
         <v>-4798736.032414163</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>71.06</v>
-      </c>
-      <c r="J226" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7944,19 +7876,11 @@
         <v>-4798736.032414163</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>71.06999999999999</v>
-      </c>
-      <c r="J227" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7985,19 +7909,11 @@
         <v>-4732499.900106222</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>71.06999999999999</v>
-      </c>
-      <c r="J228" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8026,19 +7942,11 @@
         <v>-4718173.214398612</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>71.26000000000001</v>
-      </c>
-      <c r="J229" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8067,19 +7975,11 @@
         <v>-4685813.556844592</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>71.33</v>
-      </c>
-      <c r="J230" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8111,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8150,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8189,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8228,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8267,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8306,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8345,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8384,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8423,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8462,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8501,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8537,19 +8371,11 @@
         <v>-4665802.409444591</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>71.23</v>
-      </c>
-      <c r="J242" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8581,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8620,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8659,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8698,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8737,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8776,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8815,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8854,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8893,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8932,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8971,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9010,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9049,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9088,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9127,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9166,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9205,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9244,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9283,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9322,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9361,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9436,19 +9130,11 @@
         <v>-5776383.793945771</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>71.5</v>
-      </c>
-      <c r="J265" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9477,19 +9163,11 @@
         <v>-5758307.139145771</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>71.28</v>
-      </c>
-      <c r="J266" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9518,19 +9196,11 @@
         <v>-5758307.139145771</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="J267" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9559,19 +9229,11 @@
         <v>-5764710.117645771</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>71.43000000000001</v>
-      </c>
-      <c r="J268" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9603,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9642,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9681,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9720,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9759,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9798,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9837,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9876,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9915,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9954,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9993,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10032,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10071,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10110,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10149,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10188,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10227,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10266,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10305,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10344,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10383,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10422,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10461,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10500,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10539,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10578,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10617,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10656,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10695,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10734,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10773,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10812,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10851,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10890,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10929,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10968,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11007,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11046,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11085,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11124,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11163,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11202,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11241,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11280,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11319,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11358,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11397,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11436,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11475,14 +10849,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11514,14 +10882,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11553,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11592,14 +10948,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11631,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11670,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11709,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11748,14 +11080,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11787,14 +11113,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11826,14 +11146,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11865,14 +11179,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11904,14 +11212,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11943,14 +11245,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11982,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12021,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12060,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12099,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12138,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12177,14 +11443,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12216,14 +11476,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12255,14 +11509,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12294,14 +11542,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12333,14 +11575,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12369,19 +11605,11 @@
         <v>-202551553.3216561</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>72.36</v>
-      </c>
-      <c r="J340" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12410,19 +11638,11 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J341" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12451,19 +11671,11 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="J342" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12495,14 +11707,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12534,14 +11740,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12573,14 +11773,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12612,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12651,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12687,19 +11869,11 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="J348" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12731,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12767,19 +11935,11 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="J350" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12811,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12847,19 +12001,11 @@
         <v>-202548940.7254561</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="J352" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12891,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12930,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12969,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13008,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13047,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13086,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13125,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13164,14 +12268,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13203,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>70.78</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13239,15 +12331,15 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -13278,12 +12370,12 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,12 +12409,12 @@
         <v>-202584199.648745</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13356,12 +12448,12 @@
         <v>-202542816.522945</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13395,12 +12487,12 @@
         <v>-202542816.522945</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13434,12 +12526,12 @@
         <v>-202542857.913645</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13473,12 +12565,12 @@
         <v>-202542697.798145</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13512,12 +12604,12 @@
         <v>-202557823.431045</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13551,12 +12643,12 @@
         <v>-202533932.911545</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13590,12 +12682,12 @@
         <v>-202533932.911545</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,12 +12721,12 @@
         <v>-202562433.3313451</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13668,12 +12760,12 @@
         <v>-202570277.1135451</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,12 +12799,12 @@
         <v>-202568917.3910451</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,12 +12838,12 @@
         <v>-202563355.0628451</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13785,12 +12877,12 @@
         <v>-202563355.0628451</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13824,12 +12916,12 @@
         <v>-202519018.060645</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13866,9 +12958,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13902,12 +12992,12 @@
         <v>-202518923.8436444</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13944,9 +13034,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13983,9 +13071,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14019,12 +13105,12 @@
         <v>-202977303.5575444</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14058,12 +13144,12 @@
         <v>-202977343.5575444</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>72</v>
+      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14097,12 +13183,12 @@
         <v>-202977343.5575444</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14136,12 +13222,12 @@
         <v>-203898491.1118444</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14175,12 +13261,12 @@
         <v>-203893518.3949444</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14214,12 +13300,12 @@
         <v>-203852472.0612864</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14253,12 +13339,12 @@
         <v>-203927492.0717864</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14292,12 +13378,12 @@
         <v>-203922852.5981864</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14331,12 +13417,12 @@
         <v>-203922892.5981864</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>71.83</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14370,12 +13456,12 @@
         <v>-203802381.4595864</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14409,12 +13495,12 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14448,12 +13534,12 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14487,12 +13573,12 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14526,12 +13612,12 @@
         <v>-203904888.9595864</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14565,12 +13651,12 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14604,12 +13690,12 @@
         <v>-203904858.9595864</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14643,12 +13729,12 @@
         <v>-203898979.7958864</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14682,12 +13768,12 @@
         <v>-203899019.7958864</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,12 +13807,12 @@
         <v>-203899009.7958864</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>71.70999999999999</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14760,12 +13846,12 @@
         <v>-203887909.7958864</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14799,12 +13885,12 @@
         <v>-203888852.6212864</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14838,12 +13924,12 @@
         <v>-203873052.6212864</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14877,12 +13963,12 @@
         <v>-203872957.6212864</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>71.83</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,9 +14005,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14958,9 +14042,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14994,12 +14076,12 @@
         <v>-203910989.9582864</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15033,12 +14115,12 @@
         <v>-203910989.9582864</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15072,12 +14154,12 @@
         <v>-203910979.9582864</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15111,12 +14193,12 @@
         <v>-203911049.9582864</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>71.79000000000001</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15150,12 +14232,12 @@
         <v>-203882866.0792631</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>71.78</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15192,9 +14274,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15231,9 +14311,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,9 +14348,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15309,9 +14385,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,9 +14422,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,9 +14459,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15426,9 +14496,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15465,9 +14533,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15504,9 +14570,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15543,9 +14607,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15582,9 +14644,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15621,9 +14681,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15660,9 +14718,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15699,9 +14755,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15738,9 +14792,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15777,9 +14829,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15816,9 +14866,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15855,9 +14903,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15894,9 +14940,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15933,9 +14977,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15972,9 +15014,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16011,9 +15051,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16050,9 +15088,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16089,9 +15125,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16128,9 +15162,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16167,9 +15199,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16206,9 +15236,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16242,14 +15270,10 @@
         <v>-203895680.5715963</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="J439" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16286,9 +15310,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16322,14 +15344,10 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="J441" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16363,14 +15381,10 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>72.15000000000001</v>
-      </c>
-      <c r="J442" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16404,14 +15418,10 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>72.15000000000001</v>
-      </c>
-      <c r="J443" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16445,14 +15455,10 @@
         <v>-203817784.4106963</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>72.15000000000001</v>
-      </c>
-      <c r="J444" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,14 +15492,10 @@
         <v>-203842784.4106963</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>72.18000000000001</v>
-      </c>
-      <c r="J445" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16527,14 +15529,10 @@
         <v>-203826635.2076963</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>72.09</v>
-      </c>
-      <c r="J446" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16571,9 +15569,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16610,9 +15606,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16646,14 +15640,10 @@
         <v>-203830775.8434963</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>72.27</v>
-      </c>
-      <c r="J449" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16687,14 +15677,10 @@
         <v>-203896121.7218963</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="J450" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16731,9 +15717,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16767,14 +15751,10 @@
         <v>-203873445.8797963</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="J452" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16808,14 +15788,10 @@
         <v>-203901233.4344963</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>72.39</v>
-      </c>
-      <c r="J453" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16849,14 +15825,10 @@
         <v>-203928998.1035963</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="J454" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16890,14 +15862,10 @@
         <v>-203928698.1035963</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>72.17</v>
-      </c>
-      <c r="J455" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16931,14 +15899,10 @@
         <v>-203928698.1035963</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J456" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,14 +15936,10 @@
         <v>-204029482.7334963</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J457" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17013,14 +15973,10 @@
         <v>-204150033.6122963</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>72.17</v>
-      </c>
-      <c r="J458" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17054,14 +16010,12 @@
         <v>-204149326.5810963</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>72.09</v>
       </c>
-      <c r="J459" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17095,14 +16049,10 @@
         <v>-204150969.2813963</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J460" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17136,14 +16086,10 @@
         <v>-204150969.2813963</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>72.29000000000001</v>
-      </c>
-      <c r="J461" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17177,14 +16123,10 @@
         <v>-204143013.3293963</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>72.29000000000001</v>
-      </c>
-      <c r="J462" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17218,14 +16160,10 @@
         <v>-204143013.3293963</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J463" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17259,14 +16197,10 @@
         <v>-204172371.2131963</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="J464" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17300,14 +16234,10 @@
         <v>-204172371.2131963</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="J465" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17341,14 +16271,10 @@
         <v>-204175128.6622963</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="J466" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17382,14 +16308,10 @@
         <v>-204193019.8715963</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>72.22</v>
-      </c>
-      <c r="J467" t="n">
-        <v>70.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17423,14 +16345,12 @@
         <v>-204247718.9251963</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>72.13</v>
       </c>
-      <c r="J468" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17464,14 +16384,12 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>72.12</v>
       </c>
-      <c r="J469" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,14 +16423,12 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>71.73</v>
       </c>
-      <c r="J470" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17546,14 +16462,12 @@
         <v>-204237923.2056963</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>71.73</v>
       </c>
-      <c r="J471" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17587,14 +16501,12 @@
         <v>-204224120.9251963</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>71.97</v>
       </c>
-      <c r="J472" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17628,14 +16540,12 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>72.06999999999999</v>
       </c>
-      <c r="J473" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17669,14 +16579,12 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>71.97</v>
       </c>
-      <c r="J474" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17710,12 +16618,12 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>71.97</v>
+      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17749,12 +16657,12 @@
         <v>-204246189.2388963</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>71.97</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17788,12 +16696,12 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,12 +16735,12 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17866,14 +16774,12 @@
         <v>-204247389.5343964</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>72.12</v>
       </c>
-      <c r="J479" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17907,14 +16813,12 @@
         <v>-204247193.9018964</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>71.95999999999999</v>
       </c>
-      <c r="J480" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17948,14 +16852,12 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>72.12</v>
       </c>
-      <c r="J481" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17989,12 +16891,12 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18028,12 +16930,12 @@
         <v>-204254188.3033964</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18067,14 +16969,12 @@
         <v>-204254171.6621538</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>71.93000000000001</v>
       </c>
-      <c r="J484" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18108,12 +17008,12 @@
         <v>-204256013.0937538</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18147,12 +17047,12 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18186,12 +17086,12 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18225,12 +17125,12 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18264,12 +17164,12 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18303,12 +17203,12 @@
         <v>-204246453.7104538</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18345,9 +17245,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18384,9 +17282,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18423,9 +17319,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18462,9 +17356,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,9 +17393,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18540,9 +17430,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18579,9 +17467,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18618,9 +17504,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,9 +17541,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,9 +17578,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18735,9 +17615,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18774,9 +17652,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18813,9 +17689,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,9 +17726,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18891,9 +17763,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18930,9 +17800,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18969,9 +17837,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,9 +17874,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19047,9 +17911,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19086,9 +17948,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19125,9 +17985,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19164,9 +18022,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19203,9 +18059,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19242,9 +18096,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19281,9 +18133,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19320,9 +18170,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19359,9 +18207,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19398,9 +18244,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19437,9 +18281,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19476,9 +18318,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19515,9 +18355,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19554,9 +18392,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19593,9 +18429,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19632,9 +18466,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19668,12 +18500,12 @@
         <v>-203891478.6363639</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>72.48</v>
+      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19707,12 +18539,12 @@
         <v>-203908974.9196639</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19746,12 +18578,12 @@
         <v>-203915959.3834639</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19785,12 +18617,12 @@
         <v>-203914906.3834639</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>72.31</v>
+      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19824,12 +18656,12 @@
         <v>-203931293.5024639</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19863,12 +18695,12 @@
         <v>-203931286.4353639</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19902,12 +18734,12 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>72.31</v>
+      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19941,12 +18773,12 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19980,12 +18812,12 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20019,12 +18851,12 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20058,12 +18890,12 @@
         <v>-203954390.8062639</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20097,12 +18929,12 @@
         <v>-203945592.1183639</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20136,12 +18968,12 @@
         <v>-203948321.7075639</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20175,12 +19007,12 @@
         <v>-203948284.7951639</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20214,12 +19046,12 @@
         <v>-203974501.7908639</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20253,12 +19085,12 @@
         <v>-203974494.8875639</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20292,12 +19124,12 @@
         <v>-203974502.8875639</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20331,12 +19163,12 @@
         <v>-203974502.8875639</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>72.42</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20370,12 +19202,12 @@
         <v>-203974502.8875639</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>72.42</v>
+      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20409,12 +19241,12 @@
         <v>-203942995.9537639</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>72.42</v>
+      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20448,12 +19280,12 @@
         <v>-203946409.3087639</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20490,9 +19322,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20529,9 +19359,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20568,9 +19396,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20607,9 +19433,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20646,9 +19470,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20685,9 +19507,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20724,9 +19544,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20763,9 +19581,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20802,9 +19618,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20841,9 +19655,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20880,9 +19692,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20919,9 +19729,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20958,9 +19766,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20997,9 +19803,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21036,9 +19840,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21075,9 +19877,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21114,9 +19914,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21153,9 +19951,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21192,9 +19988,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21231,9 +20025,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21270,9 +20062,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21309,9 +20099,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21348,9 +20136,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21387,9 +20173,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21426,9 +20210,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21465,9 +20247,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21504,9 +20284,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21543,9 +20321,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21582,9 +20358,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21621,9 +20395,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21660,9 +20432,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21699,9 +20469,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21738,9 +20506,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21777,9 +20543,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21816,9 +20580,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21855,9 +20617,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21894,9 +20654,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21933,9 +20691,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21972,9 +20728,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22011,9 +20765,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22050,9 +20802,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22089,9 +20839,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22128,9 +20876,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22167,9 +20913,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22206,9 +20950,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22245,9 +20987,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22284,9 +21024,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22320,12 +21058,12 @@
         <v>-203837665.8696797</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22359,12 +21097,12 @@
         <v>-203837734.0327798</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22401,9 +21139,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22437,12 +21173,12 @@
         <v>-203851435.6662798</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22476,12 +21212,12 @@
         <v>-203836851.4892691</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22515,12 +21251,12 @@
         <v>-203839851.4892691</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22554,12 +21290,12 @@
         <v>-203845463.8831691</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22593,12 +21329,12 @@
         <v>-203819569.4750691</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22635,9 +21371,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22674,9 +21408,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22713,9 +21445,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22749,12 +21479,12 @@
         <v>-203818783.4129642</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>72.48</v>
+      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22791,9 +21521,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22827,12 +21555,12 @@
         <v>-203842711.3131642</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22866,12 +21594,12 @@
         <v>-203842711.3131642</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>72.52</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22905,12 +21633,12 @@
         <v>-203823306.5181642</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>72.52</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22947,9 +21675,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22986,9 +21712,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23025,9 +21749,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23064,9 +21786,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23103,9 +21823,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23142,9 +21860,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23181,9 +21897,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23220,9 +21934,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23259,9 +21971,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23298,9 +22008,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23337,9 +22045,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23376,9 +22082,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23415,9 +22119,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23451,12 +22153,12 @@
         <v>-203755279.4833642</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23493,9 +22195,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23532,9 +22232,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23571,9 +22269,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23610,9 +22306,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23649,9 +22343,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23688,9 +22380,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23727,9 +22417,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23766,9 +22454,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23805,9 +22491,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23844,9 +22528,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23883,9 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23922,9 +22602,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23961,9 +22639,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24000,9 +22676,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24039,9 +22713,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24078,9 +22750,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24117,9 +22787,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24156,9 +22824,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24195,9 +22861,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24234,9 +22898,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24273,9 +22935,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24309,12 +22969,12 @@
         <v>-203741419.1700469</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24348,12 +23008,12 @@
         <v>-203712672.3677469</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24387,12 +23047,12 @@
         <v>-203714915.5737469</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24426,12 +23086,12 @@
         <v>-203714915.5737469</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24465,12 +23125,12 @@
         <v>-203714654.8986469</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24504,12 +23164,12 @@
         <v>-203715993.1720469</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>72.97</v>
+      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24546,9 +23206,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24585,9 +23243,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24621,12 +23277,12 @@
         <v>-203715993.1720469</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24660,12 +23316,12 @@
         <v>-203706150.2709469</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24702,9 +23358,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24741,9 +23395,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24780,9 +23432,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24819,9 +23469,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24858,9 +23506,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24897,9 +23543,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24936,9 +23580,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24975,9 +23617,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25014,9 +23654,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25050,12 +23688,12 @@
         <v>-203631359.1103469</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25089,12 +23727,12 @@
         <v>-203623951.0068469</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>70.78</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>72.87</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25131,9 +23769,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25170,9 +23806,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25209,9 +23843,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25248,9 +23880,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25287,9 +23917,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25326,9 +23954,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25365,9 +23991,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25404,9 +24028,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25443,9 +24065,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25482,9 +24102,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>70.78</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25496,6 +24114,6 @@
       <c r="M674" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest XLM.xlsx
+++ b/BackTest/2020-01-22 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1365086.98883293</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1362086.98883293</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1385448.75743293</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1350948.75743293</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1350948.75743293</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1405164.79343293</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1407726.52993293</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1538484.02103293</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1671567.04653293</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1671567.04653293</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1706849.68803293</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1699339.79583293</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1699354.76423293</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1694389.95733293</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1689647.77353293</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1689647.77353293</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1689647.77353293</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1699196.25953293</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1699196.25953293</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1699196.25953293</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1698061.25953293</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1818905.40773293</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-202507127.5426208</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-202507155.1288277</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-202507168.9486277</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-202507148.9486277</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-202521176.5195561</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-202551553.3216561</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-202546870.3919562</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12331,752 +12331,654 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="C363" t="n">
         <v>72.26000000000001</v>
       </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
+      <c r="D363" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E363" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="F363" t="n">
+        <v>14316.0098</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-202530607.352145</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="C364" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D364" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E364" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="F364" t="n">
+        <v>53592.2966</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-202584199.648745</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C365" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="D365" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E365" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F365" t="n">
+        <v>41383.1258</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-202542816.522945</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="C366" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="D366" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E366" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="F366" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-202542816.522945</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="C367" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="D367" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E367" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="F367" t="n">
+        <v>41.3907</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-202542857.913645</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="C368" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="D368" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="E368" t="n">
+        <v>72.25</v>
+      </c>
+      <c r="F368" t="n">
+        <v>160.1155</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-202542697.798145</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C369" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D369" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E369" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F369" t="n">
+        <v>15125.6329</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-202557823.431045</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="C370" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="D370" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="E370" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="F370" t="n">
+        <v>23890.5195</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-202533932.911545</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="C371" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="D371" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="E371" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="F371" t="n">
+        <v>5863.2282</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-202533932.911545</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="C372" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="D372" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="E372" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F372" t="n">
+        <v>28500.4198</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-202562433.3313451</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C373" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D373" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="E373" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F373" t="n">
+        <v>7843.7822</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-202570277.1135451</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C374" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="D374" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E374" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1359.7225</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-202568917.3910451</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="C375" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="D375" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E375" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="F375" t="n">
+        <v>5562.3282</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-202563355.0628451</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="C376" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="D376" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="E376" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="F376" t="n">
+        <v>18327.1926</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-202563355.0628451</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="C377" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="D377" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="E377" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="F377" t="n">
+        <v>44337.0022</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-202519018.060645</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="C378" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="D378" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="E378" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="F378" t="n">
+        <v>44</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-202519062.060645</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="C379" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="D379" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="E379" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="F379" t="n">
+        <v>138.21700069</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-202518923.8436444</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="J379" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="C380" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="D380" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="E380" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="F380" t="n">
+        <v>68233.9981</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-202587157.8417444</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="C381" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D381" t="n">
+        <v>72.09</v>
+      </c>
+      <c r="E381" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F381" t="n">
+        <v>13796.6947</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-202600954.5364444</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="K381" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="C363" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="D363" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E363" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="F363" t="n">
-        <v>14316.0098</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-202530607.352145</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="C364" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D364" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E364" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="F364" t="n">
-        <v>53592.2966</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-202584199.648745</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="C365" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="D365" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E365" t="n">
-        <v>72.04000000000001</v>
-      </c>
-      <c r="F365" t="n">
-        <v>41383.1258</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-202542816.522945</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="C366" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="D366" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E366" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="F366" t="n">
-        <v>2300</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-202542816.522945</v>
-      </c>
-      <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="C367" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="D367" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="E367" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="F367" t="n">
-        <v>41.3907</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-202542857.913645</v>
-      </c>
-      <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="C368" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="D368" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="E368" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="F368" t="n">
-        <v>160.1155</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-202542697.798145</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="C369" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D369" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="E369" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F369" t="n">
-        <v>15125.6329</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-202557823.431045</v>
-      </c>
-      <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>72.25</v>
-      </c>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="C370" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="D370" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="E370" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="F370" t="n">
-        <v>23890.5195</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-202533932.911545</v>
-      </c>
-      <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="C371" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="D371" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="E371" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="F371" t="n">
-        <v>5863.2282</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-202533932.911545</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="C372" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="D372" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="E372" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="F372" t="n">
-        <v>28500.4198</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-202562433.3313451</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>72.23999999999999</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="C373" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="D373" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="E373" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="F373" t="n">
-        <v>7843.7822</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-202570277.1135451</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="C374" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="D374" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E374" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="F374" t="n">
-        <v>1359.7225</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-202568917.3910451</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>72.03</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="C375" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="D375" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E375" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="F375" t="n">
-        <v>5562.3282</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-202563355.0628451</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>72.05</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="C376" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="D376" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="E376" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="F376" t="n">
-        <v>18327.1926</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-202563355.0628451</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="C377" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="D377" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="E377" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="F377" t="n">
-        <v>44337.0022</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-202519018.060645</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>72.26000000000001</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="C378" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="D378" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="E378" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="F378" t="n">
-        <v>44</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-202519062.060645</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>72.34999999999999</v>
-      </c>
-      <c r="C379" t="n">
-        <v>72.34999999999999</v>
-      </c>
-      <c r="D379" t="n">
-        <v>72.34999999999999</v>
-      </c>
-      <c r="E379" t="n">
-        <v>72.34999999999999</v>
-      </c>
-      <c r="F379" t="n">
-        <v>138.21700069</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-202518923.8436444</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>72.22</v>
-      </c>
-      <c r="C380" t="n">
-        <v>72.22</v>
-      </c>
-      <c r="D380" t="n">
-        <v>72.22</v>
-      </c>
-      <c r="E380" t="n">
-        <v>72.22</v>
-      </c>
-      <c r="F380" t="n">
-        <v>68233.9981</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-202587157.8417444</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>72.09</v>
-      </c>
-      <c r="C381" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="D381" t="n">
-        <v>72.09</v>
-      </c>
-      <c r="E381" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="F381" t="n">
-        <v>13796.6947</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-202600954.5364444</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13105,12 +13007,12 @@
         <v>-202977303.5575444</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="J382" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13149,7 +13051,9 @@
       <c r="I383" t="n">
         <v>72</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13188,7 +13092,9 @@
       <c r="I384" t="n">
         <v>71.92</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13222,12 +13128,12 @@
         <v>-203898491.1118444</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>71.92</v>
-      </c>
-      <c r="J385" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13261,12 +13167,12 @@
         <v>-203893518.3949444</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>71.47</v>
-      </c>
-      <c r="J386" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13300,12 +13206,12 @@
         <v>-203852472.0612864</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="J387" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13339,12 +13245,12 @@
         <v>-203927492.0717864</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>71.87</v>
-      </c>
-      <c r="J388" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13378,12 +13284,12 @@
         <v>-203922852.5981864</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>71.19</v>
-      </c>
-      <c r="J389" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13417,12 +13323,12 @@
         <v>-203922892.5981864</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>71.83</v>
-      </c>
-      <c r="J390" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13456,12 +13362,12 @@
         <v>-203802381.4595864</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>71.20999999999999</v>
-      </c>
-      <c r="J391" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13500,7 +13406,9 @@
       <c r="I392" t="n">
         <v>71.69</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13534,12 +13442,12 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>71.59999999999999</v>
-      </c>
-      <c r="J393" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13578,7 +13486,9 @@
       <c r="I394" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13617,7 +13527,9 @@
       <c r="I395" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13656,7 +13568,9 @@
       <c r="I396" t="n">
         <v>71.56999999999999</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13695,7 +13609,9 @@
       <c r="I397" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13734,7 +13650,9 @@
       <c r="I398" t="n">
         <v>71.7</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13773,7 +13691,9 @@
       <c r="I399" t="n">
         <v>71.86</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13812,7 +13732,9 @@
       <c r="I400" t="n">
         <v>71.70999999999999</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13851,7 +13773,9 @@
       <c r="I401" t="n">
         <v>71.86</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13890,7 +13814,9 @@
       <c r="I402" t="n">
         <v>71.95</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13929,7 +13855,9 @@
       <c r="I403" t="n">
         <v>71.81</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13968,7 +13896,9 @@
       <c r="I404" t="n">
         <v>71.83</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14005,7 +13935,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14039,10 +13971,14 @@
         <v>-203910989.9582864</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>71.64</v>
+      </c>
+      <c r="J406" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14081,7 +14017,9 @@
       <c r="I407" t="n">
         <v>71.64</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14120,7 +14058,9 @@
       <c r="I408" t="n">
         <v>71.64</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14159,7 +14099,9 @@
       <c r="I409" t="n">
         <v>71.64</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14198,7 +14140,9 @@
       <c r="I410" t="n">
         <v>71.79000000000001</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14237,7 +14181,9 @@
       <c r="I411" t="n">
         <v>71.78</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14274,7 +14220,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,7 +14259,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,7 +14298,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14385,7 +14337,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14422,7 +14376,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14459,7 +14415,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14496,7 +14454,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14533,7 +14493,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14570,7 +14532,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14607,7 +14571,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14644,7 +14610,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14681,7 +14649,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14718,7 +14688,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,7 +14727,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,7 +14766,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14829,7 +14805,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14866,7 +14844,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,7 +14883,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14940,7 +14922,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14977,7 +14961,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15014,7 +15000,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,7 +15039,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15088,7 +15078,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15125,7 +15117,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15162,7 +15156,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15199,7 +15195,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15236,7 +15234,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15273,7 +15273,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15310,7 +15312,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15347,7 +15351,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15384,7 +15390,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15421,7 +15429,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15455,17 +15465,19 @@
         <v>-203817784.4106963</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>72.08</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>1</v>
+        <v>0.9963873473917869</v>
       </c>
       <c r="M444" t="inlineStr"/>
     </row>
@@ -15496,11 +15508,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15533,11 +15541,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +15574,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15607,11 +15607,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15644,11 +15640,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15681,11 +15673,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15718,11 +15706,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15755,11 +15739,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15792,11 +15772,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +15805,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15866,11 +15838,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15903,11 +15871,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15940,11 +15904,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15977,11 +15937,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16010,17 +15966,11 @@
         <v>-204149326.5810963</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>72.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16053,11 +16003,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16090,11 +16036,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16127,11 +16069,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16164,11 +16102,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16201,11 +16135,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16238,11 +16168,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16275,11 +16201,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16312,11 +16234,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16345,17 +16263,11 @@
         <v>-204247718.9251963</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>72.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16384,17 +16296,11 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>72.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16423,17 +16329,11 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>71.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16462,17 +16362,11 @@
         <v>-204237923.2056963</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>71.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16501,17 +16395,11 @@
         <v>-204224120.9251963</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>71.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16540,17 +16428,11 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>72.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16579,17 +16461,11 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>71.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16618,17 +16494,11 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>71.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16657,17 +16527,11 @@
         <v>-204246189.2388963</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>71.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16696,17 +16560,11 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>72.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16735,17 +16593,11 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>72.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16774,17 +16626,11 @@
         <v>-204247389.5343964</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>72.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16813,17 +16659,11 @@
         <v>-204247193.9018964</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>71.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16852,17 +16692,11 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>72.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16891,17 +16725,11 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>71.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16930,17 +16758,11 @@
         <v>-204254188.3033964</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>71.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16969,17 +16791,11 @@
         <v>-204254171.6621538</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>71.93000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17008,17 +16824,11 @@
         <v>-204256013.0937538</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>72.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17047,17 +16857,11 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>71.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17086,17 +16890,11 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>72.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17125,17 +16923,11 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>72.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17164,17 +16956,11 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>72.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17203,17 +16989,11 @@
         <v>-204246453.7104538</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>72.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17246,11 +17026,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17283,11 +17059,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17320,11 +17092,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17357,11 +17125,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17394,11 +17158,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17431,11 +17191,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17468,11 +17224,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17505,11 +17257,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17542,11 +17290,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17579,11 +17323,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17616,11 +17356,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17653,11 +17389,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17690,11 +17422,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17727,11 +17455,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17764,11 +17488,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17801,11 +17521,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17838,11 +17554,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +17587,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17912,11 +17620,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17949,11 +17653,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17986,11 +17686,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18023,11 +17719,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18060,11 +17752,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18097,11 +17785,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18134,11 +17818,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18171,11 +17851,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18208,11 +17884,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18245,11 +17917,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18282,11 +17950,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18319,11 +17983,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18356,11 +18016,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18393,11 +18049,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18430,11 +18082,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18467,11 +18115,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18500,17 +18144,11 @@
         <v>-203891478.6363639</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>72.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18539,17 +18177,11 @@
         <v>-203908974.9196639</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>72.68000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18578,17 +18210,11 @@
         <v>-203915959.3834639</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>72.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18617,17 +18243,11 @@
         <v>-203914906.3834639</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>72.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18656,17 +18276,11 @@
         <v>-203931293.5024639</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>72.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18695,17 +18309,11 @@
         <v>-203931286.4353639</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18734,17 +18342,11 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>72.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18773,17 +18375,11 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18812,17 +18408,11 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18851,17 +18441,11 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18890,17 +18474,11 @@
         <v>-203954390.8062639</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18929,17 +18507,11 @@
         <v>-203945592.1183639</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>72.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18968,17 +18540,11 @@
         <v>-203948321.7075639</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>72.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19007,17 +18573,11 @@
         <v>-203948284.7951639</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>72.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19046,17 +18606,11 @@
         <v>-203974501.7908639</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>72.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19085,17 +18639,11 @@
         <v>-203974494.8875639</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>72.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19124,17 +18672,11 @@
         <v>-203974502.8875639</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>72.43000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19163,17 +18705,11 @@
         <v>-203974502.8875639</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>72.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19202,17 +18738,11 @@
         <v>-203974502.8875639</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>72.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19241,17 +18771,11 @@
         <v>-203942995.9537639</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>72.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19280,17 +18804,11 @@
         <v>-203946409.3087639</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>72.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19323,11 +18841,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +18874,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19397,11 +18907,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19434,11 +18940,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19471,11 +18973,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19508,11 +19006,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19545,11 +19039,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19582,11 +19072,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19619,11 +19105,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19656,11 +19138,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19693,11 +19171,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19730,11 +19204,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19767,11 +19237,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19804,11 +19270,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19841,11 +19303,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19878,11 +19336,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19915,11 +19369,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19952,11 +19402,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19989,11 +19435,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20026,11 +19468,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20063,11 +19501,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20100,11 +19534,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20137,11 +19567,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20174,11 +19600,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20211,11 +19633,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20248,11 +19666,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20285,11 +19699,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20322,11 +19732,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20359,11 +19765,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20396,11 +19798,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20433,11 +19831,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20470,11 +19864,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20507,11 +19897,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20544,11 +19930,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +19963,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20618,11 +19996,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20655,11 +20029,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20692,11 +20062,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20729,11 +20095,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20766,11 +20128,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20803,11 +20161,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20840,11 +20194,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20877,11 +20227,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20914,11 +20260,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20951,11 +20293,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20988,11 +20326,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21025,11 +20359,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21058,17 +20388,11 @@
         <v>-203837665.8696797</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>72.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21097,17 +20421,11 @@
         <v>-203837734.0327798</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>72.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21140,11 +20458,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21173,17 +20487,11 @@
         <v>-203851435.6662798</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>72.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21212,17 +20520,11 @@
         <v>-203836851.4892691</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>72.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21251,17 +20553,11 @@
         <v>-203839851.4892691</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>72.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21290,17 +20586,11 @@
         <v>-203845463.8831691</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>72.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21329,17 +20619,11 @@
         <v>-203819569.4750691</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>72.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21372,11 +20656,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21409,11 +20689,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21446,11 +20722,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21479,17 +20751,11 @@
         <v>-203818783.4129642</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>72.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21522,11 +20788,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21555,17 +20817,11 @@
         <v>-203842711.3131642</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>72.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21594,17 +20850,11 @@
         <v>-203842711.3131642</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>72.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21633,17 +20883,11 @@
         <v>-203823306.5181642</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>72.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21676,11 +20920,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21713,11 +20953,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21750,11 +20986,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21787,11 +21019,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21824,11 +21052,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21861,11 +21085,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21898,11 +21118,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21935,11 +21151,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21972,11 +21184,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22009,11 +21217,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22046,11 +21250,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22083,11 +21283,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22120,11 +21316,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22153,17 +21345,11 @@
         <v>-203755279.4833642</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>72.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22196,11 +21382,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22233,11 +21415,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22270,11 +21448,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22307,11 +21481,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22344,11 +21514,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22381,11 +21547,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22418,11 +21580,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22455,11 +21613,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22492,11 +21646,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22529,11 +21679,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22566,11 +21712,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22603,11 +21745,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22640,11 +21778,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22677,11 +21811,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22714,11 +21844,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22751,11 +21877,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22788,11 +21910,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22825,11 +21943,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22862,11 +21976,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22899,11 +22009,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22936,11 +22042,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22969,17 +22071,11 @@
         <v>-203741419.1700469</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23008,17 +22104,11 @@
         <v>-203712672.3677469</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23047,17 +22137,11 @@
         <v>-203714915.5737469</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>72.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23086,17 +22170,11 @@
         <v>-203714915.5737469</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23125,17 +22203,11 @@
         <v>-203714654.8986469</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>72.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23164,17 +22236,11 @@
         <v>-203715993.1720469</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>72.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23207,11 +22273,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23244,11 +22306,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23277,17 +22335,11 @@
         <v>-203715993.1720469</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>72.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23316,17 +22368,11 @@
         <v>-203706150.2709469</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>72.95999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23359,11 +22405,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23396,11 +22438,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23433,11 +22471,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23470,11 +22504,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23507,11 +22537,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23544,11 +22570,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23581,11 +22603,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23618,11 +22636,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23655,11 +22669,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23688,17 +22698,11 @@
         <v>-203631359.1103469</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>72.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23727,17 +22731,11 @@
         <v>-203623951.0068469</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>72.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23770,11 +22768,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23807,11 +22801,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23844,11 +22834,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23881,11 +22867,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23918,11 +22900,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23955,11 +22933,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23992,11 +22966,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24029,11 +22999,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24066,11 +23032,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24103,17 +23065,13 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
       <c r="M674" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest XLM.xlsx
+++ b/BackTest/2020-01-22 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>-1339733.62033293</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1242888.91073293</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1262998.29233293</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1440335.17163293</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1365086.98883293</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1362086.98883293</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1385448.75743293</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-202507127.5426208</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-202507155.1288277</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-202507168.9486277</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-202507148.9486277</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-202521176.5195561</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-202551553.3216561</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-202580526.2248561</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-202546870.3919562</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-202550375.1166562</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-202545398.1710562</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12331,11 +12331,17 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>72.26000000000001</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12370,17 @@
         <v>-202530607.352145</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>72.26000000000001</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12409,17 @@
         <v>-202584199.648745</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>72.26000000000001</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12448,17 @@
         <v>-202542816.522945</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>72.03</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12487,17 @@
         <v>-202542816.522945</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>72.26000000000001</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12530,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12563,17 @@
         <v>-202542697.798145</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>72.02</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12602,17 @@
         <v>-202557823.431045</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>72.25</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12641,17 @@
         <v>-202533932.911545</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>72.03</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12684,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12717,17 @@
         <v>-202562433.3313451</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>72.23999999999999</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12760,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12793,17 @@
         <v>-202568917.3910451</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>72.03</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12832,17 @@
         <v>-202563355.0628451</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>72.05</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +12875,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12912,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +12949,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,15 +12982,15 @@
         <v>-202518923.8436444</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="J379" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12932,12 +13022,10 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L380" t="n">
@@ -12971,12 +13059,10 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L381" t="n">
@@ -13010,9 +13096,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13051,9 +13135,7 @@
       <c r="I383" t="n">
         <v>72</v>
       </c>
-      <c r="J383" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13092,9 +13174,7 @@
       <c r="I384" t="n">
         <v>71.92</v>
       </c>
-      <c r="J384" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,12 +13208,12 @@
         <v>-203898491.1118444</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>71.92</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,12 +13247,12 @@
         <v>-203893518.3949444</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>71.47</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13206,12 +13286,12 @@
         <v>-203852472.0612864</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13245,12 +13325,12 @@
         <v>-203927492.0717864</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>71.87</v>
+      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13284,12 +13364,12 @@
         <v>-203922852.5981864</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13323,12 +13403,12 @@
         <v>-203922892.5981864</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>71.83</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13362,12 +13442,12 @@
         <v>-203802381.4595864</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>71.20999999999999</v>
+      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13406,9 +13486,7 @@
       <c r="I392" t="n">
         <v>71.69</v>
       </c>
-      <c r="J392" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13442,12 +13520,12 @@
         <v>-203904878.9595864</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13486,9 +13564,7 @@
       <c r="I394" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="J394" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13527,9 +13603,7 @@
       <c r="I395" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="J395" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13568,9 +13642,7 @@
       <c r="I396" t="n">
         <v>71.56999999999999</v>
       </c>
-      <c r="J396" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,9 +13681,7 @@
       <c r="I397" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="J397" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13650,9 +13720,7 @@
       <c r="I398" t="n">
         <v>71.7</v>
       </c>
-      <c r="J398" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13691,9 +13759,7 @@
       <c r="I399" t="n">
         <v>71.86</v>
       </c>
-      <c r="J399" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13732,9 +13798,7 @@
       <c r="I400" t="n">
         <v>71.70999999999999</v>
       </c>
-      <c r="J400" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13773,9 +13837,7 @@
       <c r="I401" t="n">
         <v>71.86</v>
       </c>
-      <c r="J401" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13814,9 +13876,7 @@
       <c r="I402" t="n">
         <v>71.95</v>
       </c>
-      <c r="J402" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13855,9 +13915,7 @@
       <c r="I403" t="n">
         <v>71.81</v>
       </c>
-      <c r="J403" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13896,9 +13954,7 @@
       <c r="I404" t="n">
         <v>71.83</v>
       </c>
-      <c r="J404" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13935,9 +13991,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,9 +14030,7 @@
       <c r="I406" t="n">
         <v>71.64</v>
       </c>
-      <c r="J406" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14017,9 +14069,7 @@
       <c r="I407" t="n">
         <v>71.64</v>
       </c>
-      <c r="J407" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14058,9 +14108,7 @@
       <c r="I408" t="n">
         <v>71.64</v>
       </c>
-      <c r="J408" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14099,9 +14147,7 @@
       <c r="I409" t="n">
         <v>71.64</v>
       </c>
-      <c r="J409" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14140,9 +14186,7 @@
       <c r="I410" t="n">
         <v>71.79000000000001</v>
       </c>
-      <c r="J410" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14181,9 +14225,7 @@
       <c r="I411" t="n">
         <v>71.78</v>
       </c>
-      <c r="J411" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14217,12 +14259,12 @@
         <v>-203883067.9255631</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
         <v>72.08</v>
       </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14256,12 +14298,12 @@
         <v>-203878909.9171631</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>71.63</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14295,12 +14337,12 @@
         <v>-203878839.9171631</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>71.97</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14337,9 +14379,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14373,12 +14413,12 @@
         <v>-203871917.5767631</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14415,9 +14455,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14454,9 +14492,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14493,9 +14529,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14532,9 +14566,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14571,9 +14603,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,9 +14640,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14646,12 +14674,12 @@
         <v>-203877936.7413642</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14685,12 +14713,12 @@
         <v>-203935441.4111579</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14724,12 +14752,12 @@
         <v>-203935441.4111579</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14763,12 +14791,12 @@
         <v>-203936198.4111579</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>71.98</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14802,12 +14830,12 @@
         <v>-203936198.4111579</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14841,12 +14869,12 @@
         <v>-203936198.4111579</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14880,12 +14908,12 @@
         <v>-203935898.3694738</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14919,12 +14947,12 @@
         <v>-203935829.0078752</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>71.97</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14958,12 +14986,12 @@
         <v>-203935829.0078752</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14997,12 +15025,12 @@
         <v>-203927265.4617738</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15036,12 +15064,12 @@
         <v>-203920850.9287739</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>72.23999999999999</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15078,9 +15106,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15114,12 +15140,12 @@
         <v>-203908961.6573738</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15156,9 +15182,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15192,12 +15216,12 @@
         <v>-203909515.6573738</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15234,9 +15258,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>72.08</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15270,12 +15292,12 @@
         <v>-203895680.5715963</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15309,12 +15331,12 @@
         <v>-203902612.1678963</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15348,12 +15370,12 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,12 +15409,12 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15426,12 +15448,12 @@
         <v>-203902212.1678963</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15465,19 +15487,19 @@
         <v>-203817784.4106963</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>72.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L444" t="n">
-        <v>0.9963873473917869</v>
+        <v>1</v>
       </c>
       <c r="M444" t="inlineStr"/>
     </row>
@@ -15504,11 +15526,17 @@
         <v>-203842784.4106963</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>72.18000000000001</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15537,11 +15565,17 @@
         <v>-203826635.2076963</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>72.09</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +15604,17 @@
         <v>-203860887.2911963</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>72.27</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15603,11 +15643,17 @@
         <v>-203832842.4334963</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>72.09999999999999</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15636,11 +15682,17 @@
         <v>-203830775.8434963</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>72.27</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15669,11 +15721,17 @@
         <v>-203896121.7218963</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>72.28</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15702,11 +15760,17 @@
         <v>-203896121.7218963</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>72.23</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15735,11 +15799,17 @@
         <v>-203873445.8797963</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>72.23</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15768,11 +15838,17 @@
         <v>-203901233.4344963</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>72.39</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15801,11 +15877,17 @@
         <v>-203928998.1035963</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>72.23999999999999</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15834,11 +15916,17 @@
         <v>-203928698.1035963</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>72.17</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +15955,17 @@
         <v>-203928698.1035963</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15900,11 +15994,17 @@
         <v>-204029482.7334963</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15933,11 +16033,17 @@
         <v>-204150033.6122963</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>72.17</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15966,11 +16072,17 @@
         <v>-204149326.5810963</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>72.09</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15999,11 +16111,17 @@
         <v>-204150969.2813963</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16032,11 +16150,17 @@
         <v>-204150969.2813963</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>72.29000000000001</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16065,11 +16189,17 @@
         <v>-204143013.3293963</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>72.29000000000001</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16098,11 +16228,17 @@
         <v>-204143013.3293963</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16131,11 +16267,17 @@
         <v>-204172371.2131963</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16164,11 +16306,17 @@
         <v>-204172371.2131963</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>72.23</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16197,11 +16345,17 @@
         <v>-204175128.6622963</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>72.23</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16230,11 +16384,17 @@
         <v>-204193019.8715963</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>72.22</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16263,11 +16423,17 @@
         <v>-204247718.9251963</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>72.13</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16296,11 +16462,17 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>72.12</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16329,11 +16501,17 @@
         <v>-204256228.2056963</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>71.73</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16362,11 +16540,17 @@
         <v>-204237923.2056963</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>71.73</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16395,11 +16579,17 @@
         <v>-204224120.9251963</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>71.97</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +16618,17 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>72.06999999999999</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16461,11 +16657,17 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>71.97</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16494,11 +16696,17 @@
         <v>-204246359.2388963</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>71.97</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16527,11 +16735,17 @@
         <v>-204246189.2388963</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>71.97</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16560,11 +16774,17 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>72.06999999999999</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16593,11 +16813,17 @@
         <v>-204245889.5343964</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>72.12</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16626,11 +16852,17 @@
         <v>-204247389.5343964</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>72.12</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16659,11 +16891,17 @@
         <v>-204247193.9018964</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>71.95999999999999</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16692,11 +16930,17 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>72.12</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16725,11 +16969,17 @@
         <v>-204247498.2693964</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>71.95999999999999</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16758,11 +17008,17 @@
         <v>-204254188.3033964</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>71.95999999999999</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16791,11 +17047,17 @@
         <v>-204254171.6621538</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>71.93000000000001</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16824,11 +17086,17 @@
         <v>-204256013.0937538</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>72.11</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16857,11 +17125,17 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>71.92</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16890,11 +17164,17 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>72.05</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16923,11 +17203,17 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>72.05</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16956,11 +17242,17 @@
         <v>-204253179.3351538</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>72.05</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16989,11 +17281,17 @@
         <v>-204246453.7104538</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>72.05</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17022,11 +17320,17 @@
         <v>-204246453.7104538</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>72.22</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17055,11 +17359,17 @@
         <v>-204216645.9903539</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>72.22</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17088,11 +17398,17 @@
         <v>-204213499.1401539</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>72.23</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17121,11 +17437,17 @@
         <v>-204211047.1669539</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>72.34</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17158,7 +17480,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17191,7 +17517,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17224,7 +17554,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17257,7 +17591,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17290,7 +17628,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17323,7 +17665,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17356,7 +17702,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17389,7 +17739,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17422,7 +17776,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17455,7 +17813,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17488,7 +17850,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17521,7 +17887,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17554,7 +17924,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17587,7 +17961,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17620,7 +17998,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17653,7 +18035,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17686,7 +18072,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17719,7 +18109,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17752,7 +18146,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17785,7 +18183,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +18220,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17851,7 +18257,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17884,7 +18294,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17917,7 +18331,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17950,7 +18368,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17983,7 +18405,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18016,7 +18442,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18049,7 +18479,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18082,7 +18516,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18115,7 +18553,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18144,11 +18586,17 @@
         <v>-203891478.6363639</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>72.48</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18181,7 +18629,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18210,11 +18662,17 @@
         <v>-203915959.3834639</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>72.41</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18243,11 +18701,17 @@
         <v>-203914906.3834639</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>72.31</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18280,7 +18744,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18313,7 +18781,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18346,7 +18818,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18379,7 +18855,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18408,11 +18888,17 @@
         <v>-203954140.8062639</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>72.3</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18445,7 +18931,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18478,7 +18968,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18507,11 +19001,17 @@
         <v>-203945592.1183639</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>72.05</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18540,11 +19040,17 @@
         <v>-203948321.7075639</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>72.23999999999999</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18573,11 +19079,17 @@
         <v>-203948284.7951639</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>72.09</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18610,7 +19122,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18643,7 +19159,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18676,7 +19196,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18709,7 +19233,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18742,7 +19270,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18775,7 +19307,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18808,7 +19344,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18841,7 +19381,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18874,7 +19418,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18907,7 +19455,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18940,7 +19492,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +19529,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19006,7 +19566,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19039,7 +19603,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19072,7 +19640,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19105,7 +19677,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19138,7 +19714,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19171,7 +19751,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19204,7 +19788,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19237,7 +19825,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19270,7 +19862,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19303,7 +19899,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19336,7 +19936,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19369,7 +19973,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19402,7 +20010,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19435,7 +20047,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19468,7 +20084,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19501,7 +20121,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19534,7 +20158,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19567,7 +20195,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19600,7 +20232,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19633,7 +20269,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19666,7 +20306,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19699,7 +20343,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19732,7 +20380,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19765,7 +20417,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19798,7 +20454,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19831,7 +20491,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19864,7 +20528,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19897,7 +20565,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19930,7 +20602,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19963,7 +20639,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19996,7 +20676,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20029,7 +20713,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20062,7 +20750,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20095,7 +20787,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20128,7 +20824,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20161,7 +20861,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20194,7 +20898,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20227,7 +20935,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20260,7 +20972,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20293,7 +21009,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20326,7 +21046,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20359,7 +21083,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20392,7 +21120,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20425,7 +21157,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20458,7 +21194,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20491,7 +21231,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20524,7 +21268,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20557,7 +21305,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20590,7 +21342,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20623,7 +21379,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20656,7 +21416,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20689,7 +21453,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20722,7 +21490,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20755,7 +21527,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20788,7 +21564,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20821,7 +21601,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20854,7 +21638,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20887,7 +21675,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20920,7 +21712,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20953,7 +21749,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20986,7 +21786,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21019,7 +21823,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21052,7 +21860,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21085,7 +21897,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21118,7 +21934,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21151,7 +21971,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21184,7 +22008,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21217,7 +22045,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21250,7 +22082,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21283,7 +22119,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21316,7 +22156,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21349,7 +22193,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21382,7 +22230,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21415,7 +22267,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21448,7 +22304,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21481,7 +22341,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21514,7 +22378,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21547,7 +22415,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21580,7 +22452,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21613,7 +22489,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21646,7 +22526,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21679,7 +22563,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21712,7 +22600,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21745,7 +22637,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21778,7 +22674,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21811,7 +22711,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21844,7 +22748,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21877,7 +22785,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21910,7 +22822,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21943,7 +22859,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21976,7 +22896,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22009,7 +22933,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22042,7 +22970,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22075,7 +23007,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22108,7 +23044,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22141,7 +23081,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22174,7 +23118,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22207,7 +23155,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22240,7 +23192,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22273,7 +23229,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22306,7 +23266,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22339,7 +23303,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22372,7 +23340,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22405,7 +23377,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22438,7 +23414,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22471,7 +23451,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22504,7 +23488,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22537,7 +23525,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22570,7 +23562,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22603,7 +23599,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22636,7 +23636,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22669,7 +23673,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22702,7 +23710,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22735,7 +23747,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22768,7 +23784,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22801,7 +23821,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22834,7 +23858,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22867,7 +23895,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22900,7 +23932,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22933,7 +23969,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22966,7 +24006,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22999,7 +24043,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23032,7 +24080,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23065,7 +24117,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
